--- a/data_xlsx/HIBOR_3个月.xlsx
+++ b/data_xlsx/HIBOR_3个月.xlsx
@@ -32682,8 +32682,32 @@
         <v>5.00881</v>
       </c>
     </row>
+    <row r="4076">
+      <c r="A4076" s="1" t="n">
+        <v>45125.0</v>
+      </c>
+      <c r="B4076" s="2" t="n">
+        <v>5.06333</v>
+      </c>
+    </row>
     <row r="4077">
-      <c r="A4077" s="3" t="inlineStr">
+      <c r="A4077" s="1" t="n">
+        <v>45126.0</v>
+      </c>
+      <c r="B4077" s="2" t="n">
+        <v>5.12827</v>
+      </c>
+    </row>
+    <row r="4078">
+      <c r="A4078" s="1" t="n">
+        <v>45127.0</v>
+      </c>
+      <c r="B4078" s="2" t="n">
+        <v>5.23429</v>
+      </c>
+    </row>
+    <row r="4080">
+      <c r="A4080" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>
